--- a/data/Estudiantes.xlsx
+++ b/data/Estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aee759da35fbf519/Universidad/Carrera/Programacion/Java/MSI/Simply_Contacts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{EAC89C0D-B207-4581-A622-C6583BFFB85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5EFE071D-62B4-48C9-9396-C5C77EACE5D9}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{EAC89C0D-B207-4581-A622-C6583BFFB85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E8EB077-18A5-4F6C-8B8B-0418C6EECB8A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="168">
   <si>
     <t>Name</t>
   </si>
@@ -463,28 +463,103 @@
     <t>Software Systems and Telematic Engineering</t>
   </si>
   <si>
-    <t>Calle 42A# 39E - 125 Cali Colombia</t>
-  </si>
-  <si>
-    <t>Distrito de Aguablanca Comuna 13</t>
-  </si>
-  <si>
-    <t>Cra. 1 ###13-42 La Pérgola</t>
-  </si>
-  <si>
-    <t>Calle 5 topa tolondra</t>
-  </si>
-  <si>
-    <t>Avenida el dorado con calle 30</t>
-  </si>
-  <si>
-    <t>Av Colombia #1-72 Oeste</t>
-  </si>
-  <si>
     <t>photo</t>
   </si>
   <si>
-    <t>./data/Pictures/</t>
+    <t>https://avatars2.githubusercontent.com/u/47871531?s=460&amp;v=4</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/985501710469750786/A9YVxSRl_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1341405140/jd1_400x400.GIF</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2d/S.Martini.jpg/220px-S.Martini.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lanetanoticias.com/wp-content/uploads/2018/04/2-75.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/teepublic/image/private/s--RH8rzqiO--/c_crop,x_10,y_10/c_fit,h_1152/c_crop,g_north_west,h_1038,w_1038,x_46,y_57/l_upload:v1565806151:production:blanks:vdbwo35fw6qtflw9kezw/fl_layer_apply,g_north_west,x_-111,y_-111/b_rgb:000000/c_limit,f_jpg,h_630,q_90,w_630/v1568419867/production/designs/5948972_0.jpg</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/1716459149/19072009384_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/701925334267125761/oPFULyy2_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.eestatic.com/2018/05/25/espana/tribunales/Audiencia_Nacional-Estado_Islamico-GAL-Tribunales_309980854_79280221_1024x576.jpg</t>
+  </si>
+  <si>
+    <t>https://envivo.bancomundial.org/sites/default/files/styles/focal_point_bio_detail/public/experts/ana-maria-munoz-boudet_1.jpg?itok=TGQ4Rtlo</t>
+  </si>
+  <si>
+    <t>https://www.rockandpop.cl/wp-content/uploads/2019/03/64c87618ca8a75cf849759e97605e8e4fcc9195169798bf1afd2e6b6e36a5ca0-400x360.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1O0swckdWAJLrMx-1ivVJg1r2sUpqJ6Hr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/C_A9sjWXoAEmAUQ.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1eniDi-vy6PwBfg4z8W6wb5jvZInrSOoD</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/jojo/images/3/35/Jotarokujo_anime.png/revision/latest?cb=20170302000829&amp;path-prefix=es</t>
+  </si>
+  <si>
+    <t>https://i2.wp.com/blog.urbanroosters.com/wp-content/uploads/2019/02/1-22.jpg?resize=690%2C702&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/0B-3IR2yxjXOseHpVQnRhTFlfREU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.teetee.eu/app/uploads/2016/06/design_1466078013.jpg</t>
+  </si>
+  <si>
+    <t>materias</t>
+  </si>
+  <si>
+    <t>10342,10321,11144,10818,10394,10446,10819,10445</t>
+  </si>
+  <si>
+    <t>10453,11144,10394,10446,10445,10451,11603</t>
+  </si>
+  <si>
+    <t>10824,10453,10821,10261,10391,10394,10446,10445,11603</t>
+  </si>
+  <si>
+    <t>10531,14644,10744,10876,10745,10531,14256</t>
+  </si>
+  <si>
+    <t>11467,10799,10810,10394,10446,10807,10445,10445,11167,10716</t>
+  </si>
+  <si>
+    <t>10244,10344,10394,10445,10446,11144,11544</t>
+  </si>
+  <si>
+    <t>11745,11832,11478,10406,10921,10445,10799</t>
+  </si>
+  <si>
+    <t>Calle 42A# 39E - 125 Cali, Colombia</t>
+  </si>
+  <si>
+    <t>Distrito de Aguablanca, Comuna 13</t>
+  </si>
+  <si>
+    <t>Cra. 1 ###13-42, La Pérgola</t>
+  </si>
+  <si>
+    <t>Calle 5, topa tolondra</t>
+  </si>
+  <si>
+    <t>Avenida el dorado, con calle 30</t>
+  </si>
+  <si>
+    <t>Av, Colombia #1-72 Oeste</t>
   </si>
 </sst>
 </file>
@@ -494,7 +569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -535,8 +610,33 @@
       <color rgb="FF222222"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,8 +649,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -558,11 +664,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -574,16 +696,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -802,21 +948,22 @@
   </sheetPr>
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="10" max="10" width="61.33203125" style="17" customWidth="1"/>
     <col min="13" max="13" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17.25" customHeight="1">
+    <row r="1" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -841,935 +988,952 @@
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="2"/>
+      <c r="I1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>3166360553</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="6">
         <v>36873</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10">
-        <v>5</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="9">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="I2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="13.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>3218746583</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="6">
         <v>36592</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="10">
-        <v>5</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" ht="13.2">
-      <c r="A4" s="10" t="s">
+      <c r="G3" s="9">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>3145608074</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="6">
         <v>36689</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="10">
-        <v>5</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" ht="13.2">
-      <c r="A5" s="10" t="s">
+      <c r="G4" s="9">
+        <v>5</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>3174149631</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="6">
         <v>36840</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="10">
-        <v>5</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:28" ht="13.2">
-      <c r="A6" s="10" t="s">
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>3214286125</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="6">
         <v>36444</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="10">
-        <v>5</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:28" ht="13.2">
-      <c r="A7" s="10" t="s">
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>3134567865</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="6">
         <v>36445</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="10">
-        <v>5</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J7" s="2"/>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="19"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="13.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A8" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>3101234452</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="6">
         <v>36614</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="10">
-        <v>5</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" s="7"/>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="19"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:28" ht="13.8">
-      <c r="A9" s="10" t="s">
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A9" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>3165301157</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="6">
         <v>36702</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="10">
-        <v>5</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:28" ht="13.8">
-      <c r="A10" s="10" t="s">
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="19"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>3133133113</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="6">
         <v>36804</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="10">
-        <v>5</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J10" s="8"/>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="20"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:28" ht="13.2">
-      <c r="A11" s="10" t="s">
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A11" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>3017552522</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="6">
         <v>36929</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>6</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="H11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="19"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-    </row>
-    <row r="12" spans="1:28" ht="13.2">
-      <c r="A12" s="10" t="s">
+      <c r="N11" s="18"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A12" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>3164403798</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="6">
         <v>37003</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="10">
-        <v>5</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:28" ht="13.2">
-      <c r="A13" s="10" t="s">
+      <c r="G12" s="9">
+        <v>5</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>3112345674</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="6">
         <v>36612</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="10">
-        <v>5</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J13" s="2"/>
+      <c r="G13" s="9">
+        <v>5</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="19"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:28" ht="13.2">
-      <c r="A14" s="10" t="s">
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>3128854847</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="6">
         <v>36411</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="10">
-        <v>5</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J14" s="2"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:28" ht="13.2">
-      <c r="A15" s="10" t="s">
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A15" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>3122199411</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="6">
         <v>36984</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="10">
-        <v>5</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="G15" s="9">
+        <v>5</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A16" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>3017980082</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="6">
         <v>36749</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="10">
-        <v>5</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" s="2"/>
+      <c r="G16" s="9">
+        <v>5</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="19"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.2">
-      <c r="A17" s="10" t="s">
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A17" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>3155462882</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="6">
         <v>36763</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="10">
-        <v>5</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="2"/>
+      <c r="G17" s="9">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="21"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.2">
-      <c r="A18" s="10" t="s">
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A18" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>3006780898</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="6">
         <v>37018</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="10">
-        <v>5</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="9">
+        <v>5</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J18" s="2"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.2">
-      <c r="A19" s="10" t="s">
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A19" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>3136353922</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="6">
         <v>37328</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="10">
-        <v>5</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J19" s="2"/>
+      <c r="I19" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="19"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:14" ht="13.2">
-      <c r="A20" s="10" t="s">
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A20" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>3152363380</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="6">
         <v>36573</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="10">
-        <v>5</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J20" s="2"/>
+      <c r="G20" s="9">
+        <v>5</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" ht="13.2">
-      <c r="A21" s="10" t="s">
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>3176737525</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="6">
         <v>36796</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="10">
-        <v>5</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" ht="13.2">
-      <c r="A22" s="10" t="s">
+      <c r="G21" s="9">
+        <v>5</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A22" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>3225921114</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D22" s="6">
         <v>35411</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>6</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22" s="2"/>
+      <c r="H22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>159</v>
+      </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="13.2">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A23" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>3217335600</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D23" s="6">
         <v>36490</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="10">
-        <v>5</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J23" s="2"/>
+      <c r="G23" s="9">
+        <v>5</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="19"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="13.2">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A24" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>3156352435</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D24" s="6">
         <v>36697</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="10">
-        <v>5</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J24" s="2"/>
+      <c r="G24" s="9">
+        <v>5</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="19"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="13.2">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A25" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>3184696446</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D25" s="6">
         <v>36023</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="10">
-        <v>5</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J25" s="2"/>
+      <c r="G25" s="9">
+        <v>5</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="13.2">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A26" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>3182614334</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D26" s="6">
         <v>36311</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="10">
-        <v>5</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="13.2">
-      <c r="A27" s="10" t="s">
+      <c r="G26" s="9">
+        <v>5</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A27" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>3207977395</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="6">
         <v>36937</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="10">
-        <v>5</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" ht="13.2">
-      <c r="A28" s="10" t="s">
+      <c r="G27" s="9">
+        <v>5</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A28" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>3106584281</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>100</v>
       </c>
       <c r="D28" s="6">
         <v>35993</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>6</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J28" s="2"/>
+      <c r="H28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="13.2">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>3113165736</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="6">
         <v>34391</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="10">
-        <v>5</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J29" s="2"/>
+      <c r="G29" s="9">
+        <v>5</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="21"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="13.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.2">
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.2">
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="3:7" ht="13.2">
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="3:7" ht="13.2">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+    <row r="30" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="3:7" ht="18.600000000000001" customHeight="1">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="3:7" ht="18.600000000000001" customHeight="1">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="N8:N21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{B41E4B0D-F9C5-4972-8725-793627C0279C}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{F17DDECC-150F-48AA-8168-C438D4EA0F53}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{EB59D84D-BB28-4F9B-8142-66611D5B1B92}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{AA578A1B-CC8E-4271-BC34-B97CB1FDA187}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{19ED83BC-7218-4EAE-BBD3-0359F1A67A7F}"/>
+    <hyperlink ref="I10" r:id="rId6" display="https://res.cloudinary.com/teepublic/image/private/s--RH8rzqiO--/c_crop,x_10,y_10/c_fit,h_1152/c_crop,g_north_west,h_1038,w_1038,x_46,y_57/l_upload:v1565806151:production:blanks:vdbwo35fw6qtflw9kezw/fl_layer_apply,g_north_west,x_-111,y_-111/b_rgb:000000/c_limit,f_jpg,h_630,q_90,w_630/v1568419867/production/designs/5948972_0.jpg" xr:uid="{9382A5E0-57DA-4204-91AC-2BC884B9A130}"/>
+    <hyperlink ref="I11" r:id="rId7" xr:uid="{AE4F438E-C41C-4B7F-9BED-D51BA07EF638}"/>
+    <hyperlink ref="I12" r:id="rId8" xr:uid="{BF233266-CDEC-4188-9962-7B5F29234258}"/>
+    <hyperlink ref="I15" r:id="rId9" xr:uid="{46B146CA-930E-4649-A49C-B15C7AA03EE1}"/>
+    <hyperlink ref="I16" r:id="rId10" xr:uid="{593F3AEB-EE06-430E-9D05-42B835F2FDA2}"/>
+    <hyperlink ref="I19" r:id="rId11" xr:uid="{9D43F543-185D-4DF6-BF8C-93094B0D4F41}"/>
+    <hyperlink ref="I20" r:id="rId12" xr:uid="{443B3D8D-5BC7-45FB-A057-DC801D1EB373}"/>
+    <hyperlink ref="I21" r:id="rId13" xr:uid="{A12EFBC7-AD4C-4C6D-8B93-5FE8A590F775}"/>
+    <hyperlink ref="I22" r:id="rId14" xr:uid="{9C85F893-4620-4B26-A0CD-FF0775E85A4B}"/>
+    <hyperlink ref="I24" r:id="rId15" xr:uid="{3FC8AE7F-0889-4A8D-B779-11C9654C47CE}"/>
+    <hyperlink ref="I27" r:id="rId16" xr:uid="{1FEA7B27-235A-46F0-8AA9-097B0A6B2AA7}"/>
+    <hyperlink ref="I28" r:id="rId17" xr:uid="{AC0DB96D-03D3-48D1-83CA-3740A21172D5}"/>
+    <hyperlink ref="I25" r:id="rId18" xr:uid="{13F6A800-37F7-4656-9C5D-14C925CBC547}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
